--- a/スタイル管理.xlsx
+++ b/スタイル管理.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,188 +410,214 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>クラウド</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Unnamed: 1</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Unnamed: 2</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Unnamed: 3</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>スタイル</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Unnamed: 5</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Unnamed: 6</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr"/>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>実施日</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>平均点数</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>平均時間</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>自習</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>実習</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>復習</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>お試しスタイル</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr"/>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>2024年前期</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>56.17</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" t="n">
         <v>30.33</v>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✕</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>〇</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr"/>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
         <is>
           <t>2024年後期</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>63.33</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" t="n">
         <v>35.17</v>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>✕</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr"/>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025年前期</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>57.6</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>26.4</v>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>✕</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr"/>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025年後期</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>58.6</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" t="n">
         <v>30.8</v>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>〇</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>✕</t>
         </is>
       </c>
     </row>
@@ -657,174 +683,174 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr"/>
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>実施日</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>平均点数</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>平均時間</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>自習</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>実習</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>復習</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>練習問題</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr"/>
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>2024年前期</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>56.17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>30.33</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr"/>
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>2024年後期</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>63.33</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>35.17</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr"/>
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>2025年前期</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>57.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>26.4</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr"/>
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>2025年後期</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>58.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="0" t="n">
         <v>30.8</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>×</t>
         </is>
